--- a/data_group/plan_max_and_min_group_prec.xlsx
+++ b/data_group/plan_max_and_min_group_prec.xlsx
@@ -2107,7 +2107,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2138,7 +2138,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2231,7 +2231,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2262,7 +2262,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2293,7 +2293,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2324,7 +2324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2355,7 +2355,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2386,7 +2386,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2417,7 +2417,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2510,7 +2510,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2603,7 +2603,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2634,7 +2634,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2665,7 +2665,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2696,7 +2696,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2727,7 +2727,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2789,7 +2789,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2820,7 +2820,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2851,7 +2851,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2913,7 +2913,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2975,7 +2975,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">

--- a/data_group/plan_max_and_min_group_prec.xlsx
+++ b/data_group/plan_max_and_min_group_prec.xlsx
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="E2">
-        <v>2865.76437277781</v>
+        <v>2920.344262871454</v>
       </c>
       <c r="F2">
-        <v>2338.01556863484</v>
+        <v>2359.52321572997</v>
       </c>
       <c r="G2">
-        <v>1853.424931390625</v>
+        <v>1880.204964069923</v>
       </c>
     </row>
     <row r="3">
@@ -437,13 +437,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>2897.819637555061</v>
+        <v>2942.698976507882</v>
       </c>
       <c r="F3">
-        <v>2379.54896131117</v>
+        <v>2395.12671176424</v>
       </c>
       <c r="G3">
-        <v>1892.040573946358</v>
+        <v>1912.965843262218</v>
       </c>
     </row>
     <row r="4">
@@ -463,13 +463,13 @@
         </is>
       </c>
       <c r="E4">
-        <v>2912.181280249392</v>
+        <v>2944.768424007164</v>
       </c>
       <c r="F4">
-        <v>2406.035493979396</v>
+        <v>2418.035929194805</v>
       </c>
       <c r="G4">
-        <v>1915.053099852792</v>
+        <v>1932.362441009022</v>
       </c>
     </row>
     <row r="5">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>2914.447088209278</v>
+        <v>2936.293764988482</v>
       </c>
       <c r="F5">
-        <v>2424.244173200528</v>
+        <v>2428.642887232289</v>
       </c>
       <c r="G5">
-        <v>1928.205076794107</v>
+        <v>1944.806517144738</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="E6">
-        <v>2908.404252833992</v>
+        <v>2919.008867629769</v>
       </c>
       <c r="F6">
-        <v>2428.541469586219</v>
+        <v>2430.163548064301</v>
       </c>
       <c r="G6">
-        <v>1936.741721943966</v>
+        <v>1945.887603799666</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="E12">
-        <v>2730.654881122127</v>
+        <v>2867.12129363376</v>
       </c>
       <c r="F12">
-        <v>2500.387354616212</v>
+        <v>2614.659778169439</v>
       </c>
       <c r="G12">
-        <v>2111.482040501103</v>
+        <v>2250.303054385868</v>
       </c>
     </row>
     <row r="13">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="E13">
-        <v>2691.205726358104</v>
+        <v>2809.31310713025</v>
       </c>
       <c r="F13">
-        <v>2500.525734552574</v>
+        <v>2572.763190421151</v>
       </c>
       <c r="G13">
-        <v>2093.881801173859</v>
+        <v>2203.365141584147</v>
       </c>
     </row>
     <row r="14">
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="E14">
-        <v>2674.391491010021</v>
+        <v>2767.743569370283</v>
       </c>
       <c r="F14">
-        <v>2469.904314067623</v>
+        <v>2555.085914011988</v>
       </c>
       <c r="G14">
-        <v>2080.77005878828</v>
+        <v>2169.954719739925</v>
       </c>
     </row>
     <row r="15">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="E15">
-        <v>2641.084098762025</v>
+        <v>2697.139332233824</v>
       </c>
       <c r="F15">
-        <v>2432.665512531068</v>
+        <v>2506.752169392492</v>
       </c>
       <c r="G15">
-        <v>2053.433498149277</v>
+        <v>2110.010903817561</v>
       </c>
     </row>
     <row r="16">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E16">
-        <v>2609.944635748213</v>
+        <v>2630.98025099794</v>
       </c>
       <c r="F16">
-        <v>2388.997727349157</v>
+        <v>2418.585217109064</v>
       </c>
       <c r="G16">
-        <v>2023.346179990619</v>
+        <v>2044.332139667828</v>
       </c>
     </row>
     <row r="17">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="E22">
-        <v>2255.436366677293</v>
+        <v>2403.322593750116</v>
       </c>
       <c r="F22">
-        <v>1990.819102678762</v>
+        <v>2104.171959407666</v>
       </c>
       <c r="G22">
-        <v>1776.999537644163</v>
+        <v>1879.586283842544</v>
       </c>
     </row>
     <row r="23">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="E23">
-        <v>2299.696838526391</v>
+        <v>2380.583283362635</v>
       </c>
       <c r="F23">
-        <v>2051.732800172306</v>
+        <v>2118.425945871009</v>
       </c>
       <c r="G23">
-        <v>1828.360412446542</v>
+        <v>1887.650383294186</v>
       </c>
     </row>
     <row r="24">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>2315.577505880581</v>
+        <v>2362.341336805664</v>
       </c>
       <c r="F24">
-        <v>2069.132478941885</v>
+        <v>2105.983508910806</v>
       </c>
       <c r="G24">
-        <v>1848.656829179537</v>
+        <v>1881.964369084506</v>
       </c>
     </row>
     <row r="25">
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="E25">
-        <v>2333.808969891764</v>
+        <v>2363.618205663078</v>
       </c>
       <c r="F25">
-        <v>2078.004793344407</v>
+        <v>2101.562621260096</v>
       </c>
       <c r="G25">
-        <v>1866.068005480715</v>
+        <v>1884.885556643739</v>
       </c>
     </row>
     <row r="26">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="E26">
-        <v>2329.006868851471</v>
+        <v>2340.32004474317</v>
       </c>
       <c r="F26">
-        <v>2071.872054685782</v>
+        <v>2082.139933622627</v>
       </c>
       <c r="G26">
-        <v>1874.374305142102</v>
+        <v>1879.335386199501</v>
       </c>
     </row>
     <row r="27">
